--- a/test.xlsx
+++ b/test.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273374/p6q640anq3gb13ighkba.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273375/ing23iwwerljnxbr02rl.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273376/trkgpe3zfnvqw4nsikhc.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301709/frztacdq3baoowszp81s.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301710/nhde37mi9rbsxjoulxox.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301711/fpalwideu4thsurvhggt.jpg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273377/mnmjsdpvljb1yojo1lum.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273378/tq9h5nvj5aegqcs9dcgx.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273378/rsfhztbnekkbx2qmvma5.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301712/jd1ihj4estextopdubns.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301713/vslg6tsi1ihxjrmvpgko.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301714/tvau2xs6ckasz9ijdmej.jpg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273380/nkiwyra4sdtlogkixto4.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273381/bk71knlgfoyiuggclrfy.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273382/a0vovyfzocpvninopukx.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301715/r4loq4f5ks8fvqyrz3vp.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301716/qzv75ddz015pqvhxqgdp.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301716/gamtibsnsvjigpdss4oj.jpg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273383/dsa0ln4iy1c96nfdzx0d.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273384/ywse1tpggc0dqjsqizom.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273384/krqqw0yc69zuwebwvoqr.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301717/o9xx7hzrzdvgtunwx1nl.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301718/diwnhwiw8hf2m4o7s2r3.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301719/kwqyh3tjhvpbk0yiswdb.jpg</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273385/fjnl6fxyy1p6kxy5kzqb.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273386/pdokaudwp2gqfxko4yza.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273387/xnwh3jhzracmkfy4qvna.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301720/h1raqshlajlkgii8cw8h.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301721/fe7kcfglszfwxn9kttb2.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301722/hrg4sfn97ub8vqa0olfd.jpg</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273388/lja03aarrlie4tnjxa0w.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273389/ycz3uxz27pep5cipprei.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273389/b9bnrgcvwnk1j9prr7sh.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301723/nvhhfdqfz5eal4kgy8as.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301724/bsvldh8vmi5whsht5lse.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301725/t8hyrscyxqhiflf8kuin.jpg</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735273391/plvu4ub3ckep9ro2kusb.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273391/mphz6zd9kksp08aibbdp.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735273392/pteoqe2tyshhg014qput.jpg</t>
+          <t>http://res.cloudinary.com/dje0fenqy/image/upload/v1735301726/x95n5cew879qcrze6gec.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301727/yxsjjuildzp6trdn1hqn.jpg,http://res.cloudinary.com/dje0fenqy/image/upload/v1735301728/pu5kk9ihcbqhwmbbihv4.jpg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
